--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1328.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1328.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.070830476156119</v>
+        <v>0.9855021238327026</v>
       </c>
       <c r="B1">
-        <v>2.570444377599614</v>
+        <v>1.980955481529236</v>
       </c>
       <c r="C1">
-        <v>4.97436572541385</v>
+        <v>8.750088691711426</v>
       </c>
       <c r="D1">
-        <v>2.306387180952576</v>
+        <v>2.800483703613281</v>
       </c>
       <c r="E1">
-        <v>1.218924606910109</v>
+        <v>1.425874590873718</v>
       </c>
     </row>
   </sheetData>
